--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634463.9288884522</v>
+        <v>628421.2034163269</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10711054.35756095</v>
+        <v>10711054.35756096</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6303146.571052958</v>
+        <v>6303146.571052959</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>305.4361419854106</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.41494636198082</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>211.7441702379894</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>132.8720385968501</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.824914091935057</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>170.5231556575501</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8859479377823</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1514,10 +1514,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.2683911779871</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0.5892700090420995</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5958459722326</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4225018014883</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.79242576866977</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.05267584502432</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>305.4361419854106</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>115.2837138463468</v>
       </c>
       <c r="T14" t="n">
-        <v>180.9063723734707</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>336.2739398499293</v>
       </c>
       <c r="X14" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>1.572230514674366</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>115.8945943722521</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.17485432221883</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -1782,10 +1782,10 @@
         <v>165.5958459722326</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.31927663034239</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.79242576866977</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.7847012945538</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.4751776465126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>296.1900862198175</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>336.2739398499293</v>
       </c>
       <c r="G17" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.2837138463468</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>90.12223586523018</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.572230514674366</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.824914091935057</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.5231556575501</v>
+        <v>34.35235133141557</v>
       </c>
       <c r="U18" t="n">
         <v>207.8859479377823</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5958459722326</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4225018014883</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5311856192826</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8131301035401</v>
+        <v>17.73145072995243</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>336.2739398499293</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>336.2739398499293</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>115.2837138463468</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1900862198175</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>336.2739398499293</v>
+        <v>180.9063723734707</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>33.27857155551008</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.92705970083263</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.5231556575501</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8859479377823</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2241,22 +2241,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.1900830472221</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.7847012945538</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>108.5084393337807</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336.2739398499294</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="C23" t="n">
-        <v>336.2739398499294</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>336.2739398499294</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>296.1900862198175</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.1900862198177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>134.9125130468886</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>62.59807644630999</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.5231556575501</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8859479377823</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>17.08625686101952</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2490,7 +2490,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>123.1900830472226</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.2491954667446</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7847012945538</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>122.1532054850779</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>296.1900862198175</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="Y26" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>87.31082029798499</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T27" t="n">
-        <v>170.5231556575501</v>
+        <v>64.25606385069986</v>
       </c>
       <c r="U27" t="n">
         <v>207.8859479377823</v>
@@ -2699,7 +2699,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>17.73145072995287</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>36.13772572392701</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5958459722326</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4225018014883</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U28" t="n">
         <v>282.5311856192826</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I29" t="n">
-        <v>53.09885533649555</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.869491638731187</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.3372866489152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.5231556575501</v>
+        <v>69.86671758275986</v>
       </c>
       <c r="U30" t="n">
-        <v>187.3356683405378</v>
+        <v>207.8859479377823</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5892700090420995</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.79242576866977</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.119726786583112</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27.77732476314178</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.09885533649555</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>84.44591598182834</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>43.17726542335063</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.17485432221883</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.5231556575501</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8859479377823</v>
+        <v>94.96976804385923</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.79242576866977</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1931006500056</v>
+        <v>26.04361080843529</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5311856192826</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>67.82284704398958</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>336.2739398499293</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>296.1900862198175</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>280.7985203865714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>53.09885533649555</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>140.8071341143255</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.824914091935057</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.5231556575501</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>190.6930948938818</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="F38" t="n">
-        <v>336.2739398499294</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="G38" t="n">
-        <v>165.5148065402251</v>
+        <v>114.5998048718321</v>
       </c>
       <c r="H38" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>53.09885533649555</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>115.2837138463468</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V38" t="n">
-        <v>336.2739398499294</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>68.06738904491286</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.17485432221883</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.824914091935057</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>167.3959647689372</v>
       </c>
     </row>
     <row r="40">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.15774981070836</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5958459722326</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2491954667446</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.79242576866977</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>26.04361080843485</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5311856192826</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>336.2739398499293</v>
+        <v>264.1591165999703</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>115.2837138463468</v>
       </c>
       <c r="T41" t="n">
-        <v>180.906372373471</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>336.2739398499293</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.825187924797077</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>133.7818300858458</v>
       </c>
       <c r="U42" t="n">
         <v>207.8859479377823</v>
@@ -3884,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -3909,10 +3909,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>29.66673704037761</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.7847012945538</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>40.7644247038093</v>
       </c>
       <c r="U43" t="n">
         <v>282.5311856192826</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>336.2739398499293</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>43.16889059638799</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>336.2739398499293</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.2739398499293</v>
+        <v>296.1900862198177</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.5231556575501</v>
+        <v>133.7818300858458</v>
       </c>
       <c r="U45" t="n">
-        <v>32.45734751185483</v>
+        <v>207.8859479377823</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -4152,7 +4152,7 @@
         <v>165.5958459722326</v>
       </c>
       <c r="H46" t="n">
-        <v>102.8434325417345</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.7847012945538</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40.7644247038093</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5311856192826</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.84630545262144</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="C11" t="n">
-        <v>79.84630545262144</v>
+        <v>706.2432078141142</v>
       </c>
       <c r="D11" t="n">
-        <v>79.84630545262144</v>
+        <v>366.5725615010542</v>
       </c>
       <c r="E11" t="n">
-        <v>79.84630545262144</v>
+        <v>366.5725615010542</v>
       </c>
       <c r="F11" t="n">
-        <v>79.84630545262144</v>
+        <v>366.5725615010542</v>
       </c>
       <c r="G11" t="n">
-        <v>79.84630545262144</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H11" t="n">
-        <v>79.84630545262144</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I11" t="n">
         <v>26.90191518799434</v>
@@ -5053,7 +5053,7 @@
         <v>643.4191671037756</v>
       </c>
       <c r="N11" t="n">
-        <v>880.0163170526783</v>
+        <v>880.0163170526782</v>
       </c>
       <c r="O11" t="n">
         <v>1094.760376833296</v>
@@ -5074,19 +5074,19 @@
         <v>1014.764563354933</v>
       </c>
       <c r="U11" t="n">
-        <v>759.1875980787412</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="V11" t="n">
-        <v>419.5169517656813</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="W11" t="n">
-        <v>79.84630545262144</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="X11" t="n">
-        <v>79.84630545262144</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.84630545262144</v>
+        <v>1014.764563354933</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.81596982631258</v>
+        <v>406.6645028034164</v>
       </c>
       <c r="C12" t="n">
-        <v>35.81596982631258</v>
+        <v>406.6645028034164</v>
       </c>
       <c r="D12" t="n">
-        <v>35.81596982631258</v>
+        <v>406.6645028034164</v>
       </c>
       <c r="E12" t="n">
-        <v>35.81596982631258</v>
+        <v>270.2180119143042</v>
       </c>
       <c r="F12" t="n">
-        <v>35.81596982631258</v>
+        <v>145.7862057974359</v>
       </c>
       <c r="G12" t="n">
-        <v>35.81596982631258</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H12" t="n">
-        <v>35.81596982631258</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I12" t="n">
         <v>26.90191518799434</v>
@@ -5147,25 +5147,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S12" t="n">
-        <v>1231.999986662169</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T12" t="n">
-        <v>1059.754374886866</v>
+        <v>1172.850147624414</v>
       </c>
       <c r="U12" t="n">
-        <v>849.7685688891057</v>
+        <v>1172.850147624414</v>
       </c>
       <c r="V12" t="n">
-        <v>627.2285672601728</v>
+        <v>950.310145995481</v>
       </c>
       <c r="W12" t="n">
-        <v>397.1113213934597</v>
+        <v>720.1929001287679</v>
       </c>
       <c r="X12" t="n">
-        <v>207.8042437434713</v>
+        <v>720.1929001287679</v>
       </c>
       <c r="Y12" t="n">
-        <v>35.81596982631258</v>
+        <v>540.8786832042751</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1083.066856016472</v>
+        <v>27.49713741935</v>
       </c>
       <c r="C13" t="n">
-        <v>912.8617380824612</v>
+        <v>27.49713741935</v>
       </c>
       <c r="D13" t="n">
-        <v>757.228624984976</v>
+        <v>27.49713741935</v>
       </c>
       <c r="E13" t="n">
-        <v>601.6698128441785</v>
+        <v>27.49713741935</v>
       </c>
       <c r="F13" t="n">
-        <v>444.3438780571514</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="G13" t="n">
-        <v>277.075346772068</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H13" t="n">
-        <v>130.3589877147502</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I13" t="n">
         <v>26.90191518799434</v>
       </c>
       <c r="J13" t="n">
-        <v>26.90191518799434</v>
+        <v>65.41806017097653</v>
       </c>
       <c r="K13" t="n">
-        <v>220.9582194171034</v>
+        <v>259.4743644000856</v>
       </c>
       <c r="L13" t="n">
-        <v>528.6904396548204</v>
+        <v>567.2065846378025</v>
       </c>
       <c r="M13" t="n">
-        <v>861.6016401062503</v>
+        <v>629.2187378133559</v>
       </c>
       <c r="N13" t="n">
-        <v>1192.601956616719</v>
+        <v>933.3653160376483</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.90121947816</v>
+        <v>1232.597172201173</v>
       </c>
       <c r="P13" t="n">
-        <v>1345.095759399717</v>
+        <v>1260.791712122729</v>
       </c>
       <c r="Q13" t="n">
         <v>1345.095759399717</v>
       </c>
       <c r="R13" t="n">
-        <v>1345.095759399717</v>
+        <v>1265.507450542475</v>
       </c>
       <c r="S13" t="n">
-        <v>1345.095759399717</v>
+        <v>1265.507450542475</v>
       </c>
       <c r="T13" t="n">
-        <v>1345.095759399717</v>
+        <v>1033.999268067722</v>
       </c>
       <c r="U13" t="n">
-        <v>1345.095759399717</v>
+        <v>1033.999268067722</v>
       </c>
       <c r="V13" t="n">
-        <v>1345.095759399717</v>
+        <v>768.0199228885459</v>
       </c>
       <c r="W13" t="n">
-        <v>1345.095759399717</v>
+        <v>484.6895208197236</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.095759399717</v>
+        <v>250.6091986027066</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.274874707773</v>
+        <v>27.49713741935</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.90191518799434</v>
+        <v>366.5725615010542</v>
       </c>
       <c r="C14" t="n">
         <v>26.90191518799434</v>
@@ -5278,19 +5278,19 @@
         <v>26.90191518799434</v>
       </c>
       <c r="J14" t="n">
-        <v>93.16025852400628</v>
+        <v>93.16025852400634</v>
       </c>
       <c r="K14" t="n">
         <v>225.4443763409391</v>
       </c>
       <c r="L14" t="n">
-        <v>413.5406670623569</v>
+        <v>413.5406670623568</v>
       </c>
       <c r="M14" t="n">
-        <v>643.4191671037756</v>
+        <v>643.4191671037754</v>
       </c>
       <c r="N14" t="n">
-        <v>880.0163170526782</v>
+        <v>880.0163170526783</v>
       </c>
       <c r="O14" t="n">
         <v>1094.760376833296</v>
@@ -5308,22 +5308,22 @@
         <v>1228.647563595326</v>
       </c>
       <c r="T14" t="n">
-        <v>1045.913854127174</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="U14" t="n">
-        <v>1045.913854127174</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="V14" t="n">
-        <v>1045.913854127174</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="W14" t="n">
-        <v>706.2432078141142</v>
+        <v>675.0939170418731</v>
       </c>
       <c r="X14" t="n">
-        <v>366.5725615010542</v>
+        <v>675.0939170418731</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.90191518799434</v>
+        <v>675.0939170418731</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.49002681897855</v>
+        <v>475.4322328192114</v>
       </c>
       <c r="C15" t="n">
-        <v>26.90191518799434</v>
+        <v>475.4322328192114</v>
       </c>
       <c r="D15" t="n">
-        <v>26.90191518799434</v>
+        <v>345.3432654406918</v>
       </c>
       <c r="E15" t="n">
-        <v>26.90191518799434</v>
+        <v>345.3432654406918</v>
       </c>
       <c r="F15" t="n">
-        <v>26.90191518799434</v>
+        <v>220.9114593238236</v>
       </c>
       <c r="G15" t="n">
-        <v>26.90191518799434</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="H15" t="n">
         <v>26.90191518799434</v>
@@ -5357,28 +5357,28 @@
         <v>26.90191518799434</v>
       </c>
       <c r="J15" t="n">
-        <v>54.13333004178422</v>
+        <v>248.8683250215116</v>
       </c>
       <c r="K15" t="n">
-        <v>387.0445304932142</v>
+        <v>346.2117864337822</v>
       </c>
       <c r="L15" t="n">
-        <v>548.0444790421321</v>
+        <v>507.2117349827001</v>
       </c>
       <c r="M15" t="n">
-        <v>748.5057894337135</v>
+        <v>707.6730453742814</v>
       </c>
       <c r="N15" t="n">
-        <v>963.6383334153502</v>
+        <v>922.8055893559181</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.999714725408</v>
+        <v>1105.166970665976</v>
       </c>
       <c r="P15" t="n">
-        <v>1279.79430743197</v>
+        <v>1238.961563372538</v>
       </c>
       <c r="Q15" t="n">
-        <v>1345.095759399717</v>
+        <v>1297.003460776225</v>
       </c>
       <c r="R15" t="n">
         <v>1345.095759399717</v>
@@ -5396,13 +5396,13 @@
         <v>627.2285672601728</v>
       </c>
       <c r="W15" t="n">
-        <v>397.1113213934597</v>
+        <v>627.2285672601728</v>
       </c>
       <c r="X15" t="n">
-        <v>207.8042437434713</v>
+        <v>627.2285672601728</v>
       </c>
       <c r="Y15" t="n">
-        <v>28.49002681897855</v>
+        <v>627.2285672601728</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>979.6097834897162</v>
+        <v>565.0277535801581</v>
       </c>
       <c r="C16" t="n">
-        <v>809.4046655557054</v>
+        <v>565.0277535801581</v>
       </c>
       <c r="D16" t="n">
-        <v>653.7715524582202</v>
+        <v>409.3946404826729</v>
       </c>
       <c r="E16" t="n">
-        <v>498.2127403174226</v>
+        <v>409.3946404826729</v>
       </c>
       <c r="F16" t="n">
-        <v>340.8868055303956</v>
+        <v>252.0687056956458</v>
       </c>
       <c r="G16" t="n">
-        <v>173.6182742453122</v>
+        <v>84.80017441056242</v>
       </c>
       <c r="H16" t="n">
-        <v>26.90191518799434</v>
+        <v>84.80017441056242</v>
       </c>
       <c r="I16" t="n">
         <v>26.90191518799434</v>
@@ -5439,13 +5439,13 @@
         <v>65.41806017097653</v>
       </c>
       <c r="K16" t="n">
-        <v>212.6475078988089</v>
+        <v>94.6192916574042</v>
       </c>
       <c r="L16" t="n">
-        <v>269.4537990757492</v>
+        <v>402.3515118951211</v>
       </c>
       <c r="M16" t="n">
-        <v>602.3649995271792</v>
+        <v>735.2627123465511</v>
       </c>
       <c r="N16" t="n">
         <v>933.3653160376483</v>
@@ -5460,28 +5460,28 @@
         <v>1345.095759399717</v>
       </c>
       <c r="R16" t="n">
-        <v>1345.095759399717</v>
+        <v>1265.507450542475</v>
       </c>
       <c r="S16" t="n">
-        <v>1345.095759399717</v>
+        <v>1079.866338123734</v>
       </c>
       <c r="T16" t="n">
-        <v>1345.095759399717</v>
+        <v>848.3581556489805</v>
       </c>
       <c r="U16" t="n">
-        <v>1345.095759399717</v>
+        <v>848.3581556489805</v>
       </c>
       <c r="V16" t="n">
-        <v>1345.095759399717</v>
+        <v>848.3581556489805</v>
       </c>
       <c r="W16" t="n">
-        <v>1345.095759399717</v>
+        <v>565.0277535801581</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.095759399717</v>
+        <v>565.0277535801581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1164.817802181017</v>
+        <v>565.0277535801581</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1345.095759399717</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="C17" t="n">
-        <v>1045.913854127174</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="D17" t="n">
-        <v>1045.913854127174</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="E17" t="n">
-        <v>706.2432078141142</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="F17" t="n">
-        <v>366.5725615010542</v>
+        <v>328.4843902856508</v>
       </c>
       <c r="G17" t="n">
-        <v>26.90191518799434</v>
+        <v>328.4843902856508</v>
       </c>
       <c r="H17" t="n">
         <v>26.90191518799434</v>
@@ -5524,10 +5524,10 @@
         <v>413.5406670623568</v>
       </c>
       <c r="M17" t="n">
-        <v>643.4191671037754</v>
+        <v>643.4191671037756</v>
       </c>
       <c r="N17" t="n">
-        <v>880.0163170526783</v>
+        <v>880.0163170526782</v>
       </c>
       <c r="O17" t="n">
         <v>1094.760376833296</v>
@@ -5542,25 +5542,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S17" t="n">
-        <v>1345.095759399717</v>
+        <v>1228.647563595326</v>
       </c>
       <c r="T17" t="n">
-        <v>1345.095759399717</v>
+        <v>1014.764563354933</v>
       </c>
       <c r="U17" t="n">
-        <v>1345.095759399717</v>
+        <v>759.1875980787412</v>
       </c>
       <c r="V17" t="n">
-        <v>1345.095759399717</v>
+        <v>759.1875980787412</v>
       </c>
       <c r="W17" t="n">
-        <v>1345.095759399717</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="X17" t="n">
-        <v>1345.095759399717</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="Y17" t="n">
-        <v>1345.095759399717</v>
+        <v>668.1550365987107</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.90191518799434</v>
+        <v>279.1320665526224</v>
       </c>
       <c r="C18" t="n">
-        <v>26.90191518799434</v>
+        <v>279.1320665526224</v>
       </c>
       <c r="D18" t="n">
-        <v>26.90191518799434</v>
+        <v>279.1320665526224</v>
       </c>
       <c r="E18" t="n">
-        <v>26.90191518799434</v>
+        <v>279.1320665526224</v>
       </c>
       <c r="F18" t="n">
-        <v>26.90191518799434</v>
+        <v>154.7002604357542</v>
       </c>
       <c r="G18" t="n">
-        <v>26.90191518799434</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="H18" t="n">
-        <v>26.90191518799434</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="I18" t="n">
         <v>26.90191518799434</v>
       </c>
       <c r="J18" t="n">
-        <v>54.13333004178422</v>
+        <v>248.8683250215116</v>
       </c>
       <c r="K18" t="n">
         <v>347.2630195130869</v>
@@ -5621,25 +5621,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S18" t="n">
-        <v>1231.999986662169</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T18" t="n">
-        <v>1059.754374886866</v>
+        <v>1310.396414620509</v>
       </c>
       <c r="U18" t="n">
-        <v>849.7685688891057</v>
+        <v>1100.41060862275</v>
       </c>
       <c r="V18" t="n">
-        <v>627.2285672601728</v>
+        <v>877.8706069938166</v>
       </c>
       <c r="W18" t="n">
-        <v>397.1113213934597</v>
+        <v>647.7533611271035</v>
       </c>
       <c r="X18" t="n">
-        <v>207.8042437434713</v>
+        <v>458.4462834771152</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.49002681897855</v>
+        <v>279.1320665526224</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.8749307781893</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="C19" t="n">
-        <v>601.6698128441785</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="D19" t="n">
-        <v>601.6698128441785</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="E19" t="n">
-        <v>601.6698128441785</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="F19" t="n">
-        <v>444.3438780571514</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="G19" t="n">
-        <v>277.075346772068</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3589877147502</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I19" t="n">
         <v>26.90191518799434</v>
       </c>
       <c r="J19" t="n">
-        <v>26.90191518799434</v>
+        <v>65.41806017097653</v>
       </c>
       <c r="K19" t="n">
-        <v>220.9582194171034</v>
+        <v>259.4743644000856</v>
       </c>
       <c r="L19" t="n">
-        <v>277.7645105940437</v>
+        <v>567.2065846378025</v>
       </c>
       <c r="M19" t="n">
-        <v>610.6757110454737</v>
+        <v>629.2187378133559</v>
       </c>
       <c r="N19" t="n">
-        <v>941.6760275559429</v>
+        <v>724.8611796554434</v>
       </c>
       <c r="O19" t="n">
         <v>1024.093035818968</v>
@@ -5703,22 +5703,22 @@
         <v>1345.095759399717</v>
       </c>
       <c r="T19" t="n">
-        <v>1345.095759399717</v>
+        <v>1113.587576924964</v>
       </c>
       <c r="U19" t="n">
-        <v>1345.095759399717</v>
+        <v>828.2025409458906</v>
       </c>
       <c r="V19" t="n">
-        <v>1079.116414220541</v>
+        <v>562.2231957667149</v>
       </c>
       <c r="W19" t="n">
-        <v>1079.116414220541</v>
+        <v>278.8927936978925</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.116414220541</v>
+        <v>44.81247148087559</v>
       </c>
       <c r="Y19" t="n">
-        <v>957.0829494694906</v>
+        <v>26.90191518799434</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="C20" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="D20" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="E20" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="F20" t="n">
         <v>366.5725615010542</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26.90191518799434</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26.90191518799434</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.90191518799434</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26.90191518799434</v>
       </c>
       <c r="G20" t="n">
         <v>26.90191518799434</v>
@@ -5758,13 +5758,13 @@
         <v>225.4443763409391</v>
       </c>
       <c r="L20" t="n">
-        <v>413.5406670623568</v>
+        <v>413.5406670623566</v>
       </c>
       <c r="M20" t="n">
-        <v>643.4191671037756</v>
+        <v>643.4191671037755</v>
       </c>
       <c r="N20" t="n">
-        <v>880.0163170526782</v>
+        <v>880.0163170526785</v>
       </c>
       <c r="O20" t="n">
         <v>1094.760376833296</v>
@@ -5779,25 +5779,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S20" t="n">
-        <v>1345.095759399717</v>
+        <v>1228.647563595326</v>
       </c>
       <c r="T20" t="n">
-        <v>1345.095759399717</v>
+        <v>1228.647563595326</v>
       </c>
       <c r="U20" t="n">
-        <v>1345.095759399717</v>
+        <v>1228.647563595326</v>
       </c>
       <c r="V20" t="n">
+        <v>1228.647563595326</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1228.647563595326</v>
+      </c>
+      <c r="X20" t="n">
         <v>1045.913854127174</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>1045.913854127174</v>
-      </c>
-      <c r="X20" t="n">
-        <v>706.2432078141142</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>706.2432078141142</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.1381287553418</v>
+        <v>219.9067109822785</v>
       </c>
       <c r="C21" t="n">
-        <v>451.483898315434</v>
+        <v>69.25248054237073</v>
       </c>
       <c r="D21" t="n">
-        <v>321.3949309369143</v>
+        <v>69.25248054237073</v>
       </c>
       <c r="E21" t="n">
-        <v>184.948440047802</v>
+        <v>69.25248054237073</v>
       </c>
       <c r="F21" t="n">
-        <v>60.51663393093382</v>
+        <v>69.25248054237073</v>
       </c>
       <c r="G21" t="n">
-        <v>26.90191518799434</v>
+        <v>69.25248054237073</v>
       </c>
       <c r="H21" t="n">
         <v>26.90191518799434</v>
@@ -5831,25 +5831,25 @@
         <v>26.90191518799434</v>
       </c>
       <c r="J21" t="n">
-        <v>248.8683250215116</v>
+        <v>54.13333004178422</v>
       </c>
       <c r="K21" t="n">
-        <v>346.2117864337822</v>
+        <v>151.4767914540548</v>
       </c>
       <c r="L21" t="n">
-        <v>507.2117349827001</v>
+        <v>312.4767400029727</v>
       </c>
       <c r="M21" t="n">
-        <v>707.6730453742814</v>
+        <v>512.938050394554</v>
       </c>
       <c r="N21" t="n">
-        <v>922.8055893559181</v>
+        <v>728.0705943761907</v>
       </c>
       <c r="O21" t="n">
-        <v>1106.218203745281</v>
+        <v>910.4319756862486</v>
       </c>
       <c r="P21" t="n">
-        <v>1240.012796451843</v>
+        <v>1044.226568392811</v>
       </c>
       <c r="Q21" t="n">
         <v>1297.003460776225</v>
@@ -5861,22 +5861,22 @@
         <v>1345.095759399717</v>
       </c>
       <c r="T21" t="n">
-        <v>1345.095759399717</v>
+        <v>1172.850147624414</v>
       </c>
       <c r="U21" t="n">
-        <v>1345.095759399717</v>
+        <v>962.864341626654</v>
       </c>
       <c r="V21" t="n">
-        <v>1122.555757770784</v>
+        <v>740.324339997721</v>
       </c>
       <c r="W21" t="n">
-        <v>1122.555757770784</v>
+        <v>740.324339997721</v>
       </c>
       <c r="X21" t="n">
-        <v>933.2486801207958</v>
+        <v>551.0172623477326</v>
       </c>
       <c r="Y21" t="n">
-        <v>753.9344631963031</v>
+        <v>371.7030454232399</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>936.7756795250591</v>
+        <v>349.803559570563</v>
       </c>
       <c r="C22" t="n">
-        <v>766.5705615910483</v>
+        <v>349.803559570563</v>
       </c>
       <c r="D22" t="n">
-        <v>610.9374484935631</v>
+        <v>194.1704464730777</v>
       </c>
       <c r="E22" t="n">
-        <v>455.3786363527656</v>
+        <v>194.1704464730777</v>
       </c>
       <c r="F22" t="n">
-        <v>298.0527015657386</v>
+        <v>194.1704464730777</v>
       </c>
       <c r="G22" t="n">
-        <v>173.6182742453122</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H22" t="n">
         <v>26.90191518799434</v>
@@ -5913,19 +5913,19 @@
         <v>65.41806017097653</v>
       </c>
       <c r="K22" t="n">
-        <v>94.6192916574042</v>
+        <v>259.4743644000856</v>
       </c>
       <c r="L22" t="n">
-        <v>402.3515118951211</v>
+        <v>567.2065846378025</v>
       </c>
       <c r="M22" t="n">
-        <v>735.2627123465511</v>
+        <v>629.2187378133559</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.26302885702</v>
+        <v>809.165226932431</v>
       </c>
       <c r="O22" t="n">
-        <v>1316.90121947816</v>
+        <v>1108.397083095955</v>
       </c>
       <c r="P22" t="n">
         <v>1345.095759399717</v>
@@ -5937,25 +5937,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S22" t="n">
-        <v>1345.095759399717</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="T22" t="n">
-        <v>1345.095759399717</v>
+        <v>927.9464645062228</v>
       </c>
       <c r="U22" t="n">
-        <v>1345.095759399717</v>
+        <v>927.9464645062228</v>
       </c>
       <c r="V22" t="n">
-        <v>1345.095759399717</v>
+        <v>818.3419803306867</v>
       </c>
       <c r="W22" t="n">
-        <v>1345.095759399717</v>
+        <v>535.0115782618643</v>
       </c>
       <c r="X22" t="n">
-        <v>1345.095759399717</v>
+        <v>535.0115782618643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1121.98369821636</v>
+        <v>535.0115782618643</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>706.2432078141144</v>
+        <v>1005.425113086657</v>
       </c>
       <c r="C23" t="n">
-        <v>366.5725615010543</v>
+        <v>1005.425113086657</v>
       </c>
       <c r="D23" t="n">
-        <v>26.90191518799435</v>
+        <v>1005.425113086657</v>
       </c>
       <c r="E23" t="n">
-        <v>26.90191518799435</v>
+        <v>665.7544667735972</v>
       </c>
       <c r="F23" t="n">
-        <v>26.90191518799435</v>
+        <v>326.0838204605373</v>
       </c>
       <c r="G23" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H23" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I23" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J23" t="n">
-        <v>93.16025852400639</v>
+        <v>93.16025852400628</v>
       </c>
       <c r="K23" t="n">
-        <v>225.4443763409392</v>
+        <v>225.4443763409391</v>
       </c>
       <c r="L23" t="n">
-        <v>413.540667062357</v>
+        <v>413.5406670623569</v>
       </c>
       <c r="M23" t="n">
-        <v>643.4191671037759</v>
+        <v>643.4191671037756</v>
       </c>
       <c r="N23" t="n">
-        <v>880.0163170526788</v>
+        <v>880.0163170526782</v>
       </c>
       <c r="O23" t="n">
-        <v>1094.760376833297</v>
+        <v>1094.760376833296</v>
       </c>
       <c r="P23" t="n">
         <v>1255.613813018319</v>
       </c>
       <c r="Q23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="R23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="U23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="V23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="W23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="X23" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="Y23" t="n">
-        <v>1045.913854127174</v>
+        <v>1345.095759399717</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>631.7537902612003</v>
+        <v>177.5561456279021</v>
       </c>
       <c r="C24" t="n">
-        <v>481.0995598212925</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="D24" t="n">
-        <v>351.0105924427728</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="E24" t="n">
-        <v>214.5641015536605</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="F24" t="n">
-        <v>90.13229543679232</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="G24" t="n">
-        <v>90.13229543679232</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H24" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I24" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J24" t="n">
-        <v>248.8683250215116</v>
+        <v>54.13333004178422</v>
       </c>
       <c r="K24" t="n">
-        <v>346.2117864337822</v>
+        <v>151.4767914540548</v>
       </c>
       <c r="L24" t="n">
-        <v>507.2117349827001</v>
+        <v>312.4767400029727</v>
       </c>
       <c r="M24" t="n">
-        <v>707.6730453742814</v>
+        <v>512.938050394554</v>
       </c>
       <c r="N24" t="n">
-        <v>922.8055893559181</v>
+        <v>728.0705943761907</v>
       </c>
       <c r="O24" t="n">
-        <v>1105.166970665976</v>
+        <v>910.4319756862486</v>
       </c>
       <c r="P24" t="n">
-        <v>1238.961563372538</v>
+        <v>1044.226568392811</v>
       </c>
       <c r="Q24" t="n">
-        <v>1345.095759399718</v>
+        <v>1297.003460776225</v>
       </c>
       <c r="R24" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S24" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T24" t="n">
-        <v>1172.850147624414</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="U24" t="n">
-        <v>962.8643416266544</v>
+        <v>1135.109953401957</v>
       </c>
       <c r="V24" t="n">
-        <v>962.8643416266544</v>
+        <v>912.5699517730243</v>
       </c>
       <c r="W24" t="n">
-        <v>962.8643416266544</v>
+        <v>682.4527059063112</v>
       </c>
       <c r="X24" t="n">
-        <v>962.8643416266544</v>
+        <v>493.1456282563228</v>
       </c>
       <c r="Y24" t="n">
-        <v>783.5501247021616</v>
+        <v>313.8314113318301</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>936.7756795250596</v>
+        <v>642.1361342706221</v>
       </c>
       <c r="C25" t="n">
-        <v>766.5705615910488</v>
+        <v>642.1361342706221</v>
       </c>
       <c r="D25" t="n">
-        <v>610.9374484935636</v>
+        <v>486.5030211731367</v>
       </c>
       <c r="E25" t="n">
-        <v>455.3786363527661</v>
+        <v>330.9442090323392</v>
       </c>
       <c r="F25" t="n">
-        <v>298.052701565739</v>
+        <v>173.6182742453122</v>
       </c>
       <c r="G25" t="n">
         <v>173.6182742453122</v>
       </c>
       <c r="H25" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I25" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J25" t="n">
-        <v>26.90191518799435</v>
+        <v>65.41806017097653</v>
       </c>
       <c r="K25" t="n">
-        <v>88.44741879359186</v>
+        <v>259.4743644000856</v>
       </c>
       <c r="L25" t="n">
-        <v>145.2537099705322</v>
+        <v>567.2065846378025</v>
       </c>
       <c r="M25" t="n">
-        <v>478.1649104219622</v>
+        <v>900.1177850892325</v>
       </c>
       <c r="N25" t="n">
-        <v>809.1652269324314</v>
+        <v>965.7628197051149</v>
       </c>
       <c r="O25" t="n">
-        <v>1108.397083095956</v>
+        <v>1024.093035818968</v>
       </c>
       <c r="P25" t="n">
-        <v>1345.095759399718</v>
+        <v>1260.791712122729</v>
       </c>
       <c r="Q25" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="R25" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S25" t="n">
-        <v>1345.095759399718</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="T25" t="n">
-        <v>1345.095759399718</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="U25" t="n">
-        <v>1345.095759399718</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="V25" t="n">
-        <v>1345.095759399718</v>
+        <v>893.4753018018001</v>
       </c>
       <c r="W25" t="n">
-        <v>1345.095759399718</v>
+        <v>893.4753018018001</v>
       </c>
       <c r="X25" t="n">
-        <v>1345.095759399718</v>
+        <v>659.3949795847832</v>
       </c>
       <c r="Y25" t="n">
-        <v>1121.983698216361</v>
+        <v>659.3949795847832</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>366.5725615010542</v>
+        <v>791.5421128462642</v>
       </c>
       <c r="C26" t="n">
-        <v>26.90191518799434</v>
+        <v>791.5421128462642</v>
       </c>
       <c r="D26" t="n">
-        <v>26.90191518799434</v>
+        <v>791.5421128462642</v>
       </c>
       <c r="E26" t="n">
-        <v>26.90191518799434</v>
+        <v>451.8714665332042</v>
       </c>
       <c r="F26" t="n">
-        <v>26.90191518799434</v>
+        <v>328.4843902856508</v>
       </c>
       <c r="G26" t="n">
-        <v>26.90191518799434</v>
+        <v>328.4843902856508</v>
       </c>
       <c r="H26" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I26" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J26" t="n">
-        <v>93.16025852400628</v>
+        <v>93.16025852400639</v>
       </c>
       <c r="K26" t="n">
-        <v>225.4443763409391</v>
+        <v>225.4443763409392</v>
       </c>
       <c r="L26" t="n">
-        <v>413.5406670623569</v>
+        <v>413.5406670623571</v>
       </c>
       <c r="M26" t="n">
-        <v>643.4191671037756</v>
+        <v>643.419167103776</v>
       </c>
       <c r="N26" t="n">
-        <v>880.0163170526782</v>
+        <v>880.0163170526789</v>
       </c>
       <c r="O26" t="n">
-        <v>1094.760376833296</v>
+        <v>1094.760376833297</v>
       </c>
       <c r="P26" t="n">
         <v>1255.613813018319</v>
       </c>
       <c r="Q26" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R26" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S26" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T26" t="n">
-        <v>1345.095759399717</v>
+        <v>1131.212759159324</v>
       </c>
       <c r="U26" t="n">
-        <v>1345.095759399717</v>
+        <v>1131.212759159324</v>
       </c>
       <c r="V26" t="n">
-        <v>1345.095759399717</v>
+        <v>1131.212759159324</v>
       </c>
       <c r="W26" t="n">
-        <v>1345.095759399717</v>
+        <v>1131.212759159324</v>
       </c>
       <c r="X26" t="n">
-        <v>1045.913854127174</v>
+        <v>791.5421128462642</v>
       </c>
       <c r="Y26" t="n">
-        <v>706.2432078141142</v>
+        <v>791.5421128462642</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>358.4107596900466</v>
+        <v>163.3484060771066</v>
       </c>
       <c r="C27" t="n">
-        <v>358.4107596900466</v>
+        <v>163.3484060771066</v>
       </c>
       <c r="D27" t="n">
-        <v>358.4107596900466</v>
+        <v>163.3484060771066</v>
       </c>
       <c r="E27" t="n">
-        <v>270.2180119143042</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F27" t="n">
-        <v>145.7862057974359</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G27" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H27" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I27" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J27" t="n">
-        <v>54.13333004178422</v>
+        <v>248.8683250215116</v>
       </c>
       <c r="K27" t="n">
-        <v>151.4767914540548</v>
+        <v>347.2630195130873</v>
       </c>
       <c r="L27" t="n">
-        <v>312.4767400029727</v>
+        <v>508.2629680620052</v>
       </c>
       <c r="M27" t="n">
-        <v>512.938050394554</v>
+        <v>708.7242784535865</v>
       </c>
       <c r="N27" t="n">
-        <v>728.0705943761907</v>
+        <v>923.8568224352233</v>
       </c>
       <c r="O27" t="n">
-        <v>910.4319756862486</v>
+        <v>1106.218203745281</v>
       </c>
       <c r="P27" t="n">
-        <v>1044.226568392811</v>
+        <v>1240.012796451843</v>
       </c>
       <c r="Q27" t="n">
-        <v>1345.095759399717</v>
+        <v>1297.003460776225</v>
       </c>
       <c r="R27" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S27" t="n">
-        <v>1345.095759399717</v>
+        <v>1231.999986662169</v>
       </c>
       <c r="T27" t="n">
-        <v>1172.850147624414</v>
+        <v>1167.094871661462</v>
       </c>
       <c r="U27" t="n">
-        <v>962.864341626654</v>
+        <v>957.1090656637024</v>
       </c>
       <c r="V27" t="n">
-        <v>740.324339997721</v>
+        <v>734.5690640347694</v>
       </c>
       <c r="W27" t="n">
-        <v>510.2070941310079</v>
+        <v>504.4518181680563</v>
       </c>
       <c r="X27" t="n">
-        <v>510.2070941310079</v>
+        <v>315.144740518068</v>
       </c>
       <c r="Y27" t="n">
-        <v>510.2070941310079</v>
+        <v>315.144740518068</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>793.731378241468</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="C28" t="n">
-        <v>793.731378241468</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="D28" t="n">
-        <v>757.228624984976</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="E28" t="n">
-        <v>601.6698128441785</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F28" t="n">
-        <v>444.3438780571514</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G28" t="n">
-        <v>277.075346772068</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H28" t="n">
-        <v>130.3589877147502</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I28" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J28" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="K28" t="n">
-        <v>56.10314667442201</v>
+        <v>212.6475078988092</v>
       </c>
       <c r="L28" t="n">
-        <v>363.835366912139</v>
+        <v>269.4537990757495</v>
       </c>
       <c r="M28" t="n">
-        <v>696.7465673635689</v>
+        <v>602.3649995271796</v>
       </c>
       <c r="N28" t="n">
-        <v>809.165226932431</v>
+        <v>933.3653160376488</v>
       </c>
       <c r="O28" t="n">
-        <v>1108.397083095955</v>
+        <v>1232.597172201173</v>
       </c>
       <c r="P28" t="n">
-        <v>1345.095759399717</v>
+        <v>1260.79171212273</v>
       </c>
       <c r="Q28" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R28" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S28" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T28" t="n">
-        <v>1345.095759399717</v>
+        <v>1113.587576924964</v>
       </c>
       <c r="U28" t="n">
-        <v>1059.710723420644</v>
+        <v>828.2025409458911</v>
       </c>
       <c r="V28" t="n">
-        <v>793.731378241468</v>
+        <v>562.2231957667153</v>
       </c>
       <c r="W28" t="n">
-        <v>793.731378241468</v>
+        <v>278.892793697893</v>
       </c>
       <c r="X28" t="n">
-        <v>793.731378241468</v>
+        <v>44.81247148087604</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.731378241468</v>
+        <v>44.81247148087604</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>420.2077689116558</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="C29" t="n">
-        <v>80.53712259859591</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="D29" t="n">
-        <v>80.53712259859591</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="E29" t="n">
-        <v>80.53712259859591</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="F29" t="n">
-        <v>80.53712259859591</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="G29" t="n">
-        <v>80.53712259859591</v>
+        <v>328.4843902856508</v>
       </c>
       <c r="H29" t="n">
-        <v>80.53712259859591</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I29" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J29" t="n">
-        <v>93.16025852400628</v>
+        <v>93.16025852400632</v>
       </c>
       <c r="K29" t="n">
         <v>225.4443763409391</v>
@@ -6472,10 +6472,10 @@
         <v>413.5406670623569</v>
       </c>
       <c r="M29" t="n">
-        <v>643.4191671037756</v>
+        <v>643.4191671037757</v>
       </c>
       <c r="N29" t="n">
-        <v>880.0163170526783</v>
+        <v>880.0163170526787</v>
       </c>
       <c r="O29" t="n">
         <v>1094.760376833296</v>
@@ -6487,10 +6487,10 @@
         <v>1345.095759399717</v>
       </c>
       <c r="R29" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S29" t="n">
-        <v>1228.647563595326</v>
+        <v>1228.647563595327</v>
       </c>
       <c r="T29" t="n">
         <v>1014.764563354933</v>
@@ -6502,13 +6502,13 @@
         <v>1014.764563354933</v>
       </c>
       <c r="W29" t="n">
-        <v>1014.764563354933</v>
+        <v>675.0939170418735</v>
       </c>
       <c r="X29" t="n">
-        <v>1014.764563354933</v>
+        <v>668.1550365987107</v>
       </c>
       <c r="Y29" t="n">
-        <v>759.8784152247156</v>
+        <v>668.1550365987107</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.8691795724945</v>
+        <v>314.0026365170144</v>
       </c>
       <c r="C30" t="n">
-        <v>417.8691795724945</v>
+        <v>163.3484060771066</v>
       </c>
       <c r="D30" t="n">
-        <v>287.7802121939748</v>
+        <v>163.3484060771066</v>
       </c>
       <c r="E30" t="n">
-        <v>151.3337213048625</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F30" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G30" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H30" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I30" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J30" t="n">
-        <v>54.13333004178422</v>
+        <v>54.13333004178423</v>
       </c>
       <c r="K30" t="n">
-        <v>347.2630195130869</v>
+        <v>151.4767914540548</v>
       </c>
       <c r="L30" t="n">
-        <v>508.2629680620047</v>
+        <v>312.4767400029727</v>
       </c>
       <c r="M30" t="n">
-        <v>708.7242784535861</v>
+        <v>512.938050394554</v>
       </c>
       <c r="N30" t="n">
-        <v>923.8568224352229</v>
+        <v>728.0705943761907</v>
       </c>
       <c r="O30" t="n">
-        <v>1106.218203745281</v>
+        <v>910.4319756862486</v>
       </c>
       <c r="P30" t="n">
-        <v>1240.012796451843</v>
+        <v>1044.226568392811</v>
       </c>
       <c r="Q30" t="n">
-        <v>1297.003460776225</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R30" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S30" t="n">
-        <v>1231.999986662169</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T30" t="n">
-        <v>1059.754374886866</v>
+        <v>1274.52331739693</v>
       </c>
       <c r="U30" t="n">
-        <v>870.5264270681406</v>
+        <v>1064.53751139917</v>
       </c>
       <c r="V30" t="n">
-        <v>647.9864254392077</v>
+        <v>1064.53751139917</v>
       </c>
       <c r="W30" t="n">
-        <v>417.8691795724945</v>
+        <v>834.4202655324568</v>
       </c>
       <c r="X30" t="n">
-        <v>417.8691795724945</v>
+        <v>645.1131878824685</v>
       </c>
       <c r="Y30" t="n">
-        <v>417.8691795724945</v>
+        <v>465.7989709579758</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.49713741935</v>
+        <v>665.6248931473149</v>
       </c>
       <c r="C31" t="n">
-        <v>27.49713741935</v>
+        <v>495.4197752133041</v>
       </c>
       <c r="D31" t="n">
-        <v>27.49713741935</v>
+        <v>339.7866621158189</v>
       </c>
       <c r="E31" t="n">
-        <v>26.90191518799434</v>
+        <v>184.2278499750214</v>
       </c>
       <c r="F31" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G31" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H31" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I31" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J31" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="K31" t="n">
-        <v>213.5231283735012</v>
+        <v>56.10314667442202</v>
       </c>
       <c r="L31" t="n">
-        <v>521.2553486112181</v>
+        <v>363.835366912139</v>
       </c>
       <c r="M31" t="n">
-        <v>854.1665490626481</v>
+        <v>696.7465673635691</v>
       </c>
       <c r="N31" t="n">
-        <v>1185.166865573117</v>
+        <v>1027.746883874038</v>
       </c>
       <c r="O31" t="n">
-        <v>1232.597172201173</v>
+        <v>1316.901219478161</v>
       </c>
       <c r="P31" t="n">
-        <v>1260.791712122729</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="Q31" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R31" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S31" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T31" t="n">
-        <v>1033.999268067722</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="U31" t="n">
-        <v>1033.999268067722</v>
+        <v>1339.924318201149</v>
       </c>
       <c r="V31" t="n">
-        <v>768.0199228885459</v>
+        <v>1073.944973021973</v>
       </c>
       <c r="W31" t="n">
-        <v>484.6895208197236</v>
+        <v>1073.944973021973</v>
       </c>
       <c r="X31" t="n">
-        <v>250.6091986027066</v>
+        <v>1073.944973021973</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.49713741935</v>
+        <v>850.8329118386162</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1089.518794123525</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="C32" t="n">
-        <v>1089.518794123525</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="D32" t="n">
-        <v>1089.518794123525</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.460890322372</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F32" t="n">
-        <v>721.7902440093121</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G32" t="n">
-        <v>382.1195976962523</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H32" t="n">
-        <v>80.53712259859591</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I32" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J32" t="n">
-        <v>93.16025852400597</v>
+        <v>93.16025852400632</v>
       </c>
       <c r="K32" t="n">
-        <v>225.4443763409387</v>
+        <v>225.4443763409391</v>
       </c>
       <c r="L32" t="n">
-        <v>413.5406670623565</v>
+        <v>413.5406670623569</v>
       </c>
       <c r="M32" t="n">
-        <v>643.4191671037754</v>
+        <v>643.4191671037757</v>
       </c>
       <c r="N32" t="n">
-        <v>880.0163170526783</v>
+        <v>880.0163170526787</v>
       </c>
       <c r="O32" t="n">
         <v>1094.760376833296</v>
@@ -6724,28 +6724,28 @@
         <v>1345.095759399717</v>
       </c>
       <c r="R32" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S32" t="n">
-        <v>1345.095759399717</v>
+        <v>1259.796854367568</v>
       </c>
       <c r="T32" t="n">
-        <v>1345.095759399717</v>
+        <v>1045.913854127174</v>
       </c>
       <c r="U32" t="n">
-        <v>1089.518794123525</v>
+        <v>1045.913854127174</v>
       </c>
       <c r="V32" t="n">
-        <v>1089.518794123525</v>
+        <v>706.2432078141144</v>
       </c>
       <c r="W32" t="n">
-        <v>1089.518794123525</v>
+        <v>366.5725615010543</v>
       </c>
       <c r="X32" t="n">
-        <v>1089.518794123525</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="Y32" t="n">
-        <v>1089.518794123525</v>
+        <v>26.90191518799435</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.8314113318301</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="C33" t="n">
-        <v>313.8314113318301</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="D33" t="n">
-        <v>270.2180119143042</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="E33" t="n">
-        <v>270.2180119143042</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="F33" t="n">
-        <v>145.7862057974359</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="G33" t="n">
-        <v>26.90191518799434</v>
+        <v>103.8462124831649</v>
       </c>
       <c r="H33" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I33" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J33" t="n">
-        <v>54.13333004178422</v>
+        <v>54.13333004178423</v>
       </c>
       <c r="K33" t="n">
-        <v>387.0445304932142</v>
+        <v>151.4767914540548</v>
       </c>
       <c r="L33" t="n">
-        <v>556.3552666854971</v>
+        <v>312.4767400029727</v>
       </c>
       <c r="M33" t="n">
-        <v>756.8165770770784</v>
+        <v>512.938050394554</v>
       </c>
       <c r="N33" t="n">
-        <v>971.9491210587151</v>
+        <v>728.0705943761907</v>
       </c>
       <c r="O33" t="n">
-        <v>1154.310502368773</v>
+        <v>910.4319756862486</v>
       </c>
       <c r="P33" t="n">
-        <v>1288.105095075335</v>
+        <v>1044.226568392811</v>
       </c>
       <c r="Q33" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R33" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S33" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T33" t="n">
-        <v>1345.095759399717</v>
+        <v>1172.850147624414</v>
       </c>
       <c r="U33" t="n">
-        <v>1135.109953401957</v>
+        <v>1076.921088994254</v>
       </c>
       <c r="V33" t="n">
-        <v>912.5699517730243</v>
+        <v>854.3810873653205</v>
       </c>
       <c r="W33" t="n">
-        <v>682.4527059063112</v>
+        <v>624.2638414986073</v>
       </c>
       <c r="X33" t="n">
-        <v>493.1456282563228</v>
+        <v>434.956763848619</v>
       </c>
       <c r="Y33" t="n">
-        <v>313.8314113318301</v>
+        <v>255.6425469241262</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>508.2989583602879</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="C34" t="n">
-        <v>338.0938404262771</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="D34" t="n">
-        <v>182.4607273287918</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="E34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="I34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="J34" t="n">
-        <v>26.90191518799434</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="K34" t="n">
-        <v>56.10314667442201</v>
+        <v>56.10314667442202</v>
       </c>
       <c r="L34" t="n">
-        <v>353.7578463527368</v>
+        <v>363.835366912139</v>
       </c>
       <c r="M34" t="n">
-        <v>686.6690468041668</v>
+        <v>686.6690468041672</v>
       </c>
       <c r="N34" t="n">
         <v>1017.669363314636</v>
       </c>
       <c r="O34" t="n">
-        <v>1316.90121947816</v>
+        <v>1316.901219478161</v>
       </c>
       <c r="P34" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="Q34" t="n">
-        <v>1345.095759399717</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="R34" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="S34" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399718</v>
       </c>
       <c r="T34" t="n">
-        <v>1033.999268067722</v>
+        <v>1318.789081815439</v>
       </c>
       <c r="U34" t="n">
-        <v>1033.999268067722</v>
+        <v>1033.404045836366</v>
       </c>
       <c r="V34" t="n">
-        <v>1033.999268067722</v>
+        <v>767.4247006571902</v>
       </c>
       <c r="W34" t="n">
-        <v>965.4913417606615</v>
+        <v>484.0942985883679</v>
       </c>
       <c r="X34" t="n">
-        <v>731.4110195436446</v>
+        <v>250.013976371351</v>
       </c>
       <c r="Y34" t="n">
-        <v>508.2989583602879</v>
+        <v>26.90191518799435</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.0838204605373</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="C35" t="n">
-        <v>326.0838204605373</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="D35" t="n">
-        <v>326.0838204605373</v>
+        <v>1005.425113086657</v>
       </c>
       <c r="E35" t="n">
-        <v>326.0838204605373</v>
+        <v>1005.425113086657</v>
       </c>
       <c r="F35" t="n">
-        <v>26.90191518799434</v>
+        <v>665.7544667735972</v>
       </c>
       <c r="G35" t="n">
-        <v>26.90191518799434</v>
+        <v>382.1195976962523</v>
       </c>
       <c r="H35" t="n">
-        <v>26.90191518799434</v>
+        <v>80.53712259859591</v>
       </c>
       <c r="I35" t="n">
         <v>26.90191518799434</v>
@@ -6943,13 +6943,13 @@
         <v>225.4443763409391</v>
       </c>
       <c r="L35" t="n">
-        <v>413.5406670623566</v>
+        <v>413.5406670623568</v>
       </c>
       <c r="M35" t="n">
-        <v>643.4191671037755</v>
+        <v>643.4191671037754</v>
       </c>
       <c r="N35" t="n">
-        <v>880.0163170526785</v>
+        <v>880.0163170526782</v>
       </c>
       <c r="O35" t="n">
         <v>1094.760376833296</v>
@@ -6979,10 +6979,10 @@
         <v>1345.095759399717</v>
       </c>
       <c r="X35" t="n">
-        <v>1005.425113086657</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="Y35" t="n">
-        <v>665.7544667735972</v>
+        <v>1345.095759399717</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.4077006218439</v>
+        <v>186.4702002662204</v>
       </c>
       <c r="C36" t="n">
-        <v>536.7534701819361</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="D36" t="n">
-        <v>406.6645028034164</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="E36" t="n">
-        <v>270.2180119143042</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="F36" t="n">
-        <v>145.7862057974359</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="G36" t="n">
-        <v>26.90191518799434</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="H36" t="n">
-        <v>26.90191518799434</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="I36" t="n">
         <v>26.90191518799434</v>
       </c>
       <c r="J36" t="n">
-        <v>54.13333004178422</v>
+        <v>98.89524897944061</v>
       </c>
       <c r="K36" t="n">
-        <v>151.4767914540548</v>
+        <v>196.2387103917112</v>
       </c>
       <c r="L36" t="n">
-        <v>312.4767400029727</v>
+        <v>357.2386589406291</v>
       </c>
       <c r="M36" t="n">
-        <v>645.3879404544027</v>
+        <v>557.6999693322105</v>
       </c>
       <c r="N36" t="n">
-        <v>860.5204844360394</v>
+        <v>772.8325133138472</v>
       </c>
       <c r="O36" t="n">
-        <v>1154.310502368773</v>
+        <v>955.1938946239052</v>
       </c>
       <c r="P36" t="n">
         <v>1288.105095075335</v>
@@ -7043,25 +7043,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S36" t="n">
-        <v>1231.999986662169</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T36" t="n">
-        <v>1059.754374886866</v>
+        <v>1172.850147624414</v>
       </c>
       <c r="U36" t="n">
-        <v>1059.754374886866</v>
+        <v>980.2308598528161</v>
       </c>
       <c r="V36" t="n">
-        <v>1059.754374886866</v>
+        <v>757.6908582238832</v>
       </c>
       <c r="W36" t="n">
-        <v>829.6371290201525</v>
+        <v>527.5736123571701</v>
       </c>
       <c r="X36" t="n">
-        <v>829.6371290201525</v>
+        <v>338.2665347071817</v>
       </c>
       <c r="Y36" t="n">
-        <v>829.6371290201525</v>
+        <v>338.2665347071817</v>
       </c>
     </row>
     <row r="37">
@@ -7098,22 +7098,22 @@
         <v>65.41806017097653</v>
       </c>
       <c r="K37" t="n">
-        <v>212.6475078988089</v>
+        <v>259.4743644000856</v>
       </c>
       <c r="L37" t="n">
-        <v>269.4537990757492</v>
+        <v>353.7578463527368</v>
       </c>
       <c r="M37" t="n">
-        <v>602.3649995271792</v>
+        <v>686.6690468041668</v>
       </c>
       <c r="N37" t="n">
-        <v>933.3653160376483</v>
+        <v>1017.669363314636</v>
       </c>
       <c r="O37" t="n">
-        <v>1232.597172201173</v>
+        <v>1316.90121947816</v>
       </c>
       <c r="P37" t="n">
-        <v>1260.791712122729</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="Q37" t="n">
         <v>1345.095759399717</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="C38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="D38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="E38" t="n">
-        <v>888.9769172822669</v>
+        <v>535.9651475700721</v>
       </c>
       <c r="F38" t="n">
-        <v>549.3062709692069</v>
+        <v>196.2945012570122</v>
       </c>
       <c r="G38" t="n">
-        <v>382.1195976962523</v>
+        <v>80.53712259859591</v>
       </c>
       <c r="H38" t="n">
         <v>80.53712259859591</v>
       </c>
       <c r="I38" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J38" t="n">
-        <v>93.16025852400617</v>
+        <v>93.16025852400634</v>
       </c>
       <c r="K38" t="n">
-        <v>225.4443763409392</v>
+        <v>225.4443763409391</v>
       </c>
       <c r="L38" t="n">
-        <v>413.5406670623571</v>
+        <v>413.5406670623566</v>
       </c>
       <c r="M38" t="n">
-        <v>643.419167103776</v>
+        <v>643.4191671037755</v>
       </c>
       <c r="N38" t="n">
-        <v>880.0163170526789</v>
+        <v>880.0163170526785</v>
       </c>
       <c r="O38" t="n">
-        <v>1094.760376833297</v>
+        <v>1094.760376833296</v>
       </c>
       <c r="P38" t="n">
         <v>1255.613813018319</v>
       </c>
       <c r="Q38" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="R38" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S38" t="n">
-        <v>1228.647563595327</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T38" t="n">
-        <v>1228.647563595327</v>
+        <v>1131.212759159324</v>
       </c>
       <c r="U38" t="n">
-        <v>1228.647563595327</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="V38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="W38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="X38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
       <c r="Y38" t="n">
-        <v>888.9769172822669</v>
+        <v>875.6357938831319</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>682.4527059063116</v>
+        <v>172.2624607154249</v>
       </c>
       <c r="C39" t="n">
-        <v>613.6977674771067</v>
+        <v>172.2624607154249</v>
       </c>
       <c r="D39" t="n">
-        <v>483.608800098587</v>
+        <v>172.2624607154249</v>
       </c>
       <c r="E39" t="n">
-        <v>347.1623092094747</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="F39" t="n">
-        <v>222.7305030926065</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="G39" t="n">
-        <v>103.8462124831649</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="H39" t="n">
-        <v>26.90191518799435</v>
+        <v>35.81596982631258</v>
       </c>
       <c r="I39" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J39" t="n">
-        <v>54.13333004178423</v>
+        <v>248.8683250215116</v>
       </c>
       <c r="K39" t="n">
-        <v>151.4767914540548</v>
+        <v>346.2117864337822</v>
       </c>
       <c r="L39" t="n">
-        <v>312.4767400029727</v>
+        <v>507.2117349827001</v>
       </c>
       <c r="M39" t="n">
-        <v>645.3879404544028</v>
+        <v>707.6730453742814</v>
       </c>
       <c r="N39" t="n">
-        <v>860.5204844360396</v>
+        <v>922.8055893559181</v>
       </c>
       <c r="O39" t="n">
-        <v>1042.881865746098</v>
+        <v>1105.166970665976</v>
       </c>
       <c r="P39" t="n">
-        <v>1176.67645845266</v>
+        <v>1238.961563372538</v>
       </c>
       <c r="Q39" t="n">
         <v>1297.003460776225</v>
       </c>
       <c r="R39" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S39" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T39" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="U39" t="n">
-        <v>1135.109953401958</v>
+        <v>1135.109953401957</v>
       </c>
       <c r="V39" t="n">
-        <v>912.5699517730247</v>
+        <v>912.5699517730243</v>
       </c>
       <c r="W39" t="n">
-        <v>682.4527059063116</v>
+        <v>682.4527059063112</v>
       </c>
       <c r="X39" t="n">
-        <v>682.4527059063116</v>
+        <v>493.1456282563228</v>
       </c>
       <c r="Y39" t="n">
-        <v>682.4527059063116</v>
+        <v>324.0587951563862</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>979.6097834897162</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="C40" t="n">
-        <v>809.4046655557054</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="D40" t="n">
-        <v>653.7715524582202</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="E40" t="n">
-        <v>498.2127403174226</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="F40" t="n">
-        <v>340.8868055303956</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="G40" t="n">
-        <v>173.6182742453122</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="H40" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="I40" t="n">
-        <v>26.90191518799435</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="J40" t="n">
-        <v>65.41806017097655</v>
+        <v>26.90191518799434</v>
       </c>
       <c r="K40" t="n">
-        <v>212.6475078988092</v>
+        <v>56.10314667442201</v>
       </c>
       <c r="L40" t="n">
-        <v>269.4537990757495</v>
+        <v>353.7578463527368</v>
       </c>
       <c r="M40" t="n">
-        <v>602.3649995271796</v>
+        <v>686.6690468041668</v>
       </c>
       <c r="N40" t="n">
-        <v>933.3653160376488</v>
+        <v>1017.669363314636</v>
       </c>
       <c r="O40" t="n">
-        <v>1232.597172201173</v>
+        <v>1316.90121947816</v>
       </c>
       <c r="P40" t="n">
-        <v>1260.79171212273</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="Q40" t="n">
-        <v>1345.095759399718</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="R40" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="S40" t="n">
-        <v>1265.507450542475</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T40" t="n">
-        <v>1265.507450542475</v>
+        <v>1318.789081815439</v>
       </c>
       <c r="U40" t="n">
-        <v>1265.507450542475</v>
+        <v>1033.404045836366</v>
       </c>
       <c r="V40" t="n">
-        <v>1265.507450542475</v>
+        <v>767.4247006571902</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.507450542475</v>
+        <v>484.0942985883679</v>
       </c>
       <c r="X40" t="n">
-        <v>1265.507450542475</v>
+        <v>250.013976371351</v>
       </c>
       <c r="Y40" t="n">
-        <v>1042.395389359119</v>
+        <v>26.90191518799434</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>366.5725615010543</v>
+        <v>293.7293056930149</v>
       </c>
       <c r="C41" t="n">
-        <v>366.5725615010543</v>
+        <v>293.7293056930149</v>
       </c>
       <c r="D41" t="n">
-        <v>366.5725615010543</v>
+        <v>293.7293056930149</v>
       </c>
       <c r="E41" t="n">
-        <v>366.5725615010543</v>
+        <v>293.7293056930149</v>
       </c>
       <c r="F41" t="n">
         <v>26.90191518799435</v>
@@ -7441,22 +7441,22 @@
         <v>1228.647563595327</v>
       </c>
       <c r="T41" t="n">
-        <v>1045.913854127174</v>
+        <v>1228.647563595327</v>
       </c>
       <c r="U41" t="n">
-        <v>1045.913854127174</v>
+        <v>973.0705983191348</v>
       </c>
       <c r="V41" t="n">
-        <v>1045.913854127174</v>
+        <v>973.0705983191348</v>
       </c>
       <c r="W41" t="n">
-        <v>1045.913854127174</v>
+        <v>973.0705983191348</v>
       </c>
       <c r="X41" t="n">
-        <v>706.2432078141142</v>
+        <v>973.0705983191348</v>
       </c>
       <c r="Y41" t="n">
-        <v>366.5725615010543</v>
+        <v>633.3999520060748</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>568.5234100124023</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="C42" t="n">
-        <v>417.8691795724945</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="D42" t="n">
-        <v>287.7802121939748</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="E42" t="n">
-        <v>151.3337213048625</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F42" t="n">
         <v>26.90191518799435</v>
@@ -7517,25 +7517,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S42" t="n">
-        <v>1231.999986662169</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="T42" t="n">
-        <v>1231.999986662169</v>
+        <v>1209.962597696843</v>
       </c>
       <c r="U42" t="n">
-        <v>1022.014180664409</v>
+        <v>999.9767916990829</v>
       </c>
       <c r="V42" t="n">
-        <v>799.4741790354761</v>
+        <v>777.43679007015</v>
       </c>
       <c r="W42" t="n">
-        <v>569.356933168763</v>
+        <v>547.3195442034369</v>
       </c>
       <c r="X42" t="n">
-        <v>569.356933168763</v>
+        <v>358.0124665534485</v>
       </c>
       <c r="Y42" t="n">
-        <v>569.356933168763</v>
+        <v>178.6982496289557</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>368.0602414771636</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="C43" t="n">
-        <v>368.0602414771636</v>
+        <v>662.6883064983875</v>
       </c>
       <c r="D43" t="n">
-        <v>212.4271283796783</v>
+        <v>507.0551934009023</v>
       </c>
       <c r="E43" t="n">
-        <v>56.86831623888082</v>
+        <v>351.4963812601048</v>
       </c>
       <c r="F43" t="n">
-        <v>26.90191518799435</v>
+        <v>194.1704464730777</v>
       </c>
       <c r="G43" t="n">
         <v>26.90191518799435</v>
@@ -7572,16 +7572,16 @@
         <v>26.90191518799435</v>
       </c>
       <c r="K43" t="n">
-        <v>220.9582194171034</v>
+        <v>56.10314667442202</v>
       </c>
       <c r="L43" t="n">
-        <v>528.6904396548204</v>
+        <v>145.253709970532</v>
       </c>
       <c r="M43" t="n">
-        <v>861.6016401062504</v>
+        <v>478.164910421962</v>
       </c>
       <c r="N43" t="n">
-        <v>1060.9667764679</v>
+        <v>809.1652269324312</v>
       </c>
       <c r="O43" t="n">
         <v>1108.397083095956</v>
@@ -7596,25 +7596,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S43" t="n">
-        <v>1345.095759399717</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="T43" t="n">
-        <v>1345.095759399717</v>
+        <v>1118.278460411472</v>
       </c>
       <c r="U43" t="n">
-        <v>1059.710723420644</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="V43" t="n">
-        <v>1059.710723420644</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="W43" t="n">
-        <v>776.3803213518215</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="X43" t="n">
-        <v>776.3803213518215</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="Y43" t="n">
-        <v>553.2682601684648</v>
+        <v>832.8934244323983</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="C44" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="D44" t="n">
+        <v>706.2432078141142</v>
+      </c>
+      <c r="E44" t="n">
         <v>366.5725615010543</v>
-      </c>
-      <c r="C44" t="n">
-        <v>366.5725615010543</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.90191518799435</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.90191518799435</v>
       </c>
       <c r="F44" t="n">
         <v>26.90191518799435</v>
@@ -7681,19 +7681,19 @@
         <v>1345.095759399717</v>
       </c>
       <c r="U44" t="n">
-        <v>1089.518794123526</v>
+        <v>1345.095759399717</v>
       </c>
       <c r="V44" t="n">
+        <v>1345.095759399717</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1345.095759399717</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1345.095759399717</v>
+      </c>
+      <c r="Y44" t="n">
         <v>1045.913854127174</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1045.913854127174</v>
-      </c>
-      <c r="X44" t="n">
-        <v>706.2432078141142</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>366.5725615010543</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.4077006218439</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="C45" t="n">
-        <v>536.7534701819361</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="D45" t="n">
-        <v>406.6645028034164</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="E45" t="n">
-        <v>270.2180119143042</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="F45" t="n">
-        <v>145.786205797436</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="G45" t="n">
         <v>26.90191518799435</v>
@@ -7730,22 +7730,22 @@
         <v>54.13333004178422</v>
       </c>
       <c r="K45" t="n">
-        <v>387.0445304932143</v>
+        <v>151.4767914540548</v>
       </c>
       <c r="L45" t="n">
-        <v>556.3552666854973</v>
+        <v>312.4767400029727</v>
       </c>
       <c r="M45" t="n">
-        <v>756.8165770770786</v>
+        <v>512.938050394554</v>
       </c>
       <c r="N45" t="n">
-        <v>971.9491210587154</v>
+        <v>728.0705943761907</v>
       </c>
       <c r="O45" t="n">
-        <v>1154.310502368773</v>
+        <v>910.4319756862486</v>
       </c>
       <c r="P45" t="n">
-        <v>1288.105095075335</v>
+        <v>1044.226568392811</v>
       </c>
       <c r="Q45" t="n">
         <v>1345.095759399717</v>
@@ -7757,22 +7757,22 @@
         <v>1345.095759399717</v>
       </c>
       <c r="T45" t="n">
-        <v>1172.850147624414</v>
+        <v>1209.962597696843</v>
       </c>
       <c r="U45" t="n">
-        <v>1140.06494811749</v>
+        <v>999.9767916990829</v>
       </c>
       <c r="V45" t="n">
-        <v>917.524946488557</v>
+        <v>777.43679007015</v>
       </c>
       <c r="W45" t="n">
-        <v>687.4077006218439</v>
+        <v>547.3195442034369</v>
       </c>
       <c r="X45" t="n">
-        <v>687.4077006218439</v>
+        <v>358.0124665534485</v>
       </c>
       <c r="Y45" t="n">
-        <v>687.4077006218439</v>
+        <v>178.6982496289557</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>936.7756795250593</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="C46" t="n">
-        <v>766.5705615910485</v>
+        <v>662.6883064983875</v>
       </c>
       <c r="D46" t="n">
-        <v>610.9374484935634</v>
+        <v>507.0551934009023</v>
       </c>
       <c r="E46" t="n">
-        <v>455.3786363527659</v>
+        <v>351.4963812601048</v>
       </c>
       <c r="F46" t="n">
-        <v>298.0527015657388</v>
+        <v>194.1704464730777</v>
       </c>
       <c r="G46" t="n">
-        <v>130.7841702806554</v>
+        <v>26.90191518799435</v>
       </c>
       <c r="H46" t="n">
         <v>26.90191518799435</v>
@@ -7812,7 +7812,7 @@
         <v>56.10314667442202</v>
       </c>
       <c r="L46" t="n">
-        <v>363.835366912139</v>
+        <v>145.253709970532</v>
       </c>
       <c r="M46" t="n">
         <v>478.164910421962</v>
@@ -7833,25 +7833,25 @@
         <v>1345.095759399717</v>
       </c>
       <c r="S46" t="n">
-        <v>1345.095759399717</v>
+        <v>1159.454646980976</v>
       </c>
       <c r="T46" t="n">
-        <v>1345.095759399717</v>
+        <v>1118.278460411472</v>
       </c>
       <c r="U46" t="n">
-        <v>1345.095759399717</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="V46" t="n">
-        <v>1345.095759399717</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="W46" t="n">
-        <v>1345.095759399717</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.095759399717</v>
+        <v>832.8934244323983</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.983698216361</v>
+        <v>832.8934244323983</v>
       </c>
     </row>
   </sheetData>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.56733951094114</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
@@ -8856,19 +8856,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>273.6354012887642</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>240.910650109505</v>
       </c>
       <c r="O13" t="n">
-        <v>77.6454103367529</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.77941175920387</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>237.947211150666</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.394734993297718</v>
+        <v>1.061851595257131</v>
       </c>
       <c r="R15" t="n">
-        <v>22.43572548799146</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>119.2204204458633</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
         <v>273.6354012887642</v>
       </c>
       <c r="N16" t="n">
-        <v>268.0356382773604</v>
+        <v>133.7955243183987</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>197.763866726295</v>
+        <v>1.061851595257224</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.56733951094114</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>273.6354012887642</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>268.0356382773604</v>
+        <v>30.30041133960101</v>
       </c>
       <c r="O19" t="n">
-        <v>35.34010266158521</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
         <v>210.6102387699041</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.061851595257338</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>197.7638667262949</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9561,22 +9561,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>273.6354012887642</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>115.4560146496895</v>
       </c>
       <c r="O22" t="n">
-        <v>205.2604888819035</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
         <v>16.77941175920387</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.63993101292658</v>
+        <v>197.7638667262949</v>
       </c>
       <c r="R24" t="n">
-        <v>22.43572548799146</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>13.56733951094114</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>32.6709819385554</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M25" t="n">
-        <v>273.6354012887643</v>
+        <v>273.6354012887642</v>
       </c>
       <c r="N25" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>254.3449995307766</v>
+        <v>11.01000958161352</v>
       </c>
       <c r="P25" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.77941175920387</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.061851595257693</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>246.3419461439639</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.43572548799146</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>13.56733951094114</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>158.1256173983709</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>273.6354012887642</v>
+        <v>273.6354012887643</v>
       </c>
       <c r="N28" t="n">
-        <v>47.24608581109048</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.77941175920387</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>197.763866726295</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>246.3419461439643</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>22.43572548799146</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>13.56733951094114</v>
       </c>
       <c r="K31" t="n">
-        <v>159.0100825243223</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
-        <v>273.6354012887642</v>
+        <v>273.6354012887643</v>
       </c>
       <c r="N31" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>244.1656858344111</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>16.77941175920387</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>237.947211150666</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>8.394734993297988</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>246.3419461439643</v>
       </c>
       <c r="R33" t="n">
         <v>22.43572548799146</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2812207084591</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>273.6354012887642</v>
+        <v>263.4560875923989</v>
       </c>
       <c r="N34" t="n">
         <v>268.0356382773604</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>45.21405953298627</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>133.7877677372209</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>112.5541784067432</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>201.1278866109776</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>119.2204204458633</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>37.85574825829383</v>
       </c>
       <c r="M37" t="n">
         <v>273.6354012887642</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.77941175920387</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>133.787767737221</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.9760989890742</v>
+        <v>1.061851595257131</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>13.56733951094114</v>
       </c>
       <c r="K40" t="n">
-        <v>119.2204204458636</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>243.2812207084591</v>
       </c>
       <c r="M40" t="n">
-        <v>273.6354012887643</v>
+        <v>273.6354012887642</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>16.77941175920387</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>13.56733951094114</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>32.67098193855523</v>
       </c>
       <c r="M43" t="n">
-        <v>273.6354012887643</v>
+        <v>273.6354012887642</v>
       </c>
       <c r="N43" t="n">
-        <v>135.0708098442094</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>237.9472111506661</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>8.394734993298158</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>246.3419461439641</v>
       </c>
       <c r="R45" t="n">
         <v>22.43572548799146</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>32.67098193855523</v>
       </c>
       <c r="M46" t="n">
-        <v>52.8458488224946</v>
+        <v>273.6354012887642</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -23260,10 +23260,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>83.80760449668804</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>45.31277764556967</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8560448779076</v>
+        <v>70.58210502797829</v>
       </c>
       <c r="H11" t="n">
         <v>298.5666503466798</v>
       </c>
       <c r="I11" t="n">
-        <v>0.683908974514722</v>
+        <v>53.09885533649555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V11" t="n">
-        <v>2.411801353587521</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>31.01510483146615</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>17.40633249970162</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -23345,19 +23345,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>76.17485432221883</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.824914091935057</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8859479377823</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.252683577260711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.1634054301147</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4225018014883</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.79242576866977</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>183.7847012945538</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5311856192826</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.8282647264987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>91.05365626887226</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>52.96980663216942</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>30.83779786451862</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0211956234298</v>
@@ -23560,10 +23560,10 @@
         <v>31.01510483146615</v>
       </c>
       <c r="X14" t="n">
-        <v>49.28413916634446</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.25186213867562</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>147.5754576208343</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6954477033472</v>
+        <v>1.800853331095098</v>
       </c>
       <c r="H15" t="n">
-        <v>76.17485432221883</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>8.824914091935057</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4225018014883</v>
+        <v>45.1032251711459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.79242576866977</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.7847012945538</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5311856192826</v>
@@ -23715,13 +23715,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.40576292501046</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>93.0536602622812</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>62.28374978469162</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>76.45155423539273</v>
       </c>
       <c r="G17" t="n">
-        <v>70.58210502797829</v>
+        <v>406.8560448779076</v>
       </c>
       <c r="H17" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>53.09885533649555</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.2837138463468</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7441702379894</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>277.1668088161653</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>148.7061405818773</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23822,16 +23822,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6954477033472</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>76.17485432221883</v>
       </c>
       <c r="I18" t="n">
-        <v>8.824914091935057</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>136.1708043261345</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,16 +23901,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4225018014883</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>183.7847012945538</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5311856192826</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.067810467983</v>
+        <v>203.1494898415706</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>60.21585840435364</v>
       </c>
       <c r="C20" t="n">
-        <v>52.96980663216942</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23980,10 +23980,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>76.45155423539273</v>
       </c>
       <c r="G20" t="n">
-        <v>406.8560448779076</v>
+        <v>70.58210502797829</v>
       </c>
       <c r="H20" t="n">
         <v>298.5666503466798</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>115.2837138463468</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.7441702379894</v>
@@ -24028,13 +24028,13 @@
         <v>253.0211956234298</v>
       </c>
       <c r="V20" t="n">
-        <v>42.4956549836993</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>49.28413916634446</v>
+        <v>204.651706642803</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>84.4168761478371</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H21" t="n">
-        <v>76.17485432221883</v>
+        <v>34.24779462138621</v>
       </c>
       <c r="I21" t="n">
         <v>8.824914091935057</v>
@@ -24101,10 +24101,10 @@
         <v>111.9648150101727</v>
       </c>
       <c r="T21" t="n">
-        <v>170.5231556575501</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8859479377823</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>42.40576292501042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I22" t="n">
         <v>102.4225018014883</v>
@@ -24177,25 +24177,25 @@
         <v>78.79242576866977</v>
       </c>
       <c r="S22" t="n">
-        <v>183.7847012945538</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5311856192826</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>154.8111123936033</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.21585840435353</v>
+        <v>60.21585840435364</v>
       </c>
       <c r="C23" t="n">
-        <v>52.96980663216931</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>45.31277764556955</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>62.28374978469162</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>76.45155423539273</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8560448779076</v>
+        <v>110.6659586580901</v>
       </c>
       <c r="H23" t="n">
         <v>298.5666503466798</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>96.33571576878717</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>15.3658580496631</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>117.6954477033472</v>
       </c>
       <c r="H24" t="n">
-        <v>13.57677787590885</v>
+        <v>76.17485432221883</v>
       </c>
       <c r="I24" t="n">
         <v>8.824914091935057</v>
@@ -24338,19 +24338,19 @@
         <v>111.9648150101727</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.5231556575501</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.2696816433688</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42.40576292500997</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>78.79242576866977</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7847012945538</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.1931006500056</v>
@@ -24423,16 +24423,16 @@
         <v>282.5311856192826</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.21585840435364</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>52.96980663216942</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>62.28374978469151</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>290.5722886002441</v>
       </c>
       <c r="G26" t="n">
         <v>406.8560448779076</v>
       </c>
       <c r="H26" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>53.09885533649555</v>
@@ -24496,7 +24496,7 @@
         <v>115.2837138463468</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7441702379894</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0211956234298</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>89.36799279645624</v>
+        <v>49.28413916634435</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.25186213867562</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24530,13 +24530,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>47.77120568223616</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H27" t="n">
         <v>76.17485432221883</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.9648150101727</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>106.2670918068503</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>165.6244877744354</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9390562425834</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.4225018014883</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>183.7847012945538</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1931006500056</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.21585840435364</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>52.96980663216942</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8560448779076</v>
+        <v>70.58210502797817</v>
       </c>
       <c r="H29" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>53.09885533649555</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>31.01510483146603</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>378.6885873775425</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.1885153396897</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>117.6954477033472</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>100.6564380747903</v>
       </c>
       <c r="U30" t="n">
-        <v>20.55027959724453</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>153.4139540103474</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5958459722326</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>78.79242576866977</v>
       </c>
       <c r="S31" t="n">
         <v>183.7847012945538</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1931006500056</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5311856192826</v>
+        <v>277.4114588326995</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>370.7803648714791</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>76.45155423539273</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>70.58210502797829</v>
+        <v>406.8560448779076</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53.09885533649555</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.2837138463468</v>
+        <v>30.83779786451848</v>
       </c>
       <c r="T32" t="n">
-        <v>211.7441702379894</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>2.411801353587407</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>31.01510483146603</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>49.28413916634435</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>85.61081228138383</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H33" t="n">
-        <v>76.17485432221883</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>8.824914091935057</v>
@@ -25049,10 +25049,10 @@
         <v>111.9648150101727</v>
       </c>
       <c r="T33" t="n">
-        <v>170.5231556575501</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>112.9161798939231</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.79242576866977</v>
       </c>
       <c r="S34" t="n">
         <v>183.7847012945538</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.1494898415703</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5311856192826</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>212.6742510041446</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.21585840435364</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>45.31277764556967</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>116.5354078655045</v>
+        <v>76.45155423539273</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8560448779076</v>
+        <v>126.0575244913362</v>
       </c>
       <c r="H35" t="n">
-        <v>298.5666503466798</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>53.09885533649555</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>49.28413916634446</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>56.25186213867562</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.471236982226173</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H36" t="n">
         <v>76.17485432221883</v>
       </c>
       <c r="I36" t="n">
-        <v>8.824914091935057</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8859479377823</v>
+        <v>17.1928530439005</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>62.28374978469162</v>
       </c>
       <c r="F38" t="n">
-        <v>76.45155423539262</v>
+        <v>76.45155423539273</v>
       </c>
       <c r="G38" t="n">
-        <v>241.3412383376825</v>
+        <v>292.2562400060754</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.5666503466798</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.2837138463468</v>
       </c>
       <c r="T38" t="n">
-        <v>211.7441702379894</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.411801353587407</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>81.08029909059584</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.17485432221883</v>
       </c>
       <c r="I39" t="n">
-        <v>8.824914091935057</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>10.1251099863106</v>
       </c>
     </row>
     <row r="40">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.1981886936799</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5958459722326</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I40" t="n">
         <v>102.4225018014883</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.79242576866977</v>
       </c>
       <c r="S40" t="n">
         <v>183.7847012945538</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1931006500056</v>
+        <v>203.1494898415708</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5311856192826</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>60.21585840435358</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25639,7 +25639,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>76.45155423539268</v>
+        <v>148.5663774853517</v>
       </c>
       <c r="G41" t="n">
         <v>406.8560448779076</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.83779786451839</v>
+        <v>211.7441702379894</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0211956234298</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>49.2841391663444</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>56.25186213867556</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>149.4531831717547</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>117.6954477033472</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.9648150101727</v>
       </c>
       <c r="T42" t="n">
-        <v>170.5231556575501</v>
+        <v>36.74132557170435</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.0859383987792</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5958459722326</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.2491954667446</v>
@@ -25836,10 +25836,10 @@
         <v>78.79242576866977</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7847012945538</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1931006500056</v>
+        <v>188.4286759461963</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>60.21585840435358</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>45.31277764556961</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>62.28374978469157</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>76.45155423539268</v>
       </c>
       <c r="G44" t="n">
         <v>406.8560448779076</v>
@@ -25921,19 +25921,19 @@
         <v>211.7441702379894</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0211956234298</v>
       </c>
       <c r="V44" t="n">
-        <v>295.5168506071288</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>49.2841391663444</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.25186213867556</v>
+        <v>96.33571576878717</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6954477033472</v>
       </c>
       <c r="H45" t="n">
         <v>76.17485432221883</v>
@@ -25997,10 +25997,10 @@
         <v>111.9648150101727</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.74132557170435</v>
       </c>
       <c r="U45" t="n">
-        <v>175.4286004259275</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>42.40576292501017</v>
+        <v>145.2491954667446</v>
       </c>
       <c r="I46" t="n">
         <v>102.4225018014883</v>
@@ -26073,13 +26073,13 @@
         <v>78.79242576866977</v>
       </c>
       <c r="S46" t="n">
-        <v>183.7847012945538</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1931006500056</v>
+        <v>188.4286759461963</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5311856192826</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434637.3307742031</v>
+        <v>434637.3307742033</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434637.3307742032</v>
+        <v>434637.3307742034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434637.3307742032</v>
+        <v>434637.3307742033</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434637.3307742031</v>
+        <v>434637.3307742032</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434637.3307742034</v>
+        <v>434637.3307742032</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434637.3307742033</v>
+        <v>434637.3307742032</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434637.3307742033</v>
+        <v>434637.3307742032</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431758.1311553208</v>
+        <v>431758.1311553209</v>
       </c>
       <c r="C2" t="n">
         <v>431758.1311553208</v>
@@ -26325,7 +26325,7 @@
         <v>218833.5312038322</v>
       </c>
       <c r="F2" t="n">
-        <v>218833.5312038322</v>
+        <v>218833.5312038321</v>
       </c>
       <c r="G2" t="n">
         <v>218833.5312038322</v>
@@ -26337,22 +26337,22 @@
         <v>218833.5312038322</v>
       </c>
       <c r="J2" t="n">
-        <v>218833.5312038321</v>
+        <v>218833.5312038322</v>
       </c>
       <c r="K2" t="n">
         <v>218833.5312038322</v>
       </c>
       <c r="L2" t="n">
+        <v>218833.5312038322</v>
+      </c>
+      <c r="M2" t="n">
         <v>218833.5312038321</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>218833.5312038322</v>
       </c>
-      <c r="N2" t="n">
-        <v>218833.5312038321</v>
-      </c>
       <c r="O2" t="n">
-        <v>218833.5312038323</v>
+        <v>218833.5312038322</v>
       </c>
       <c r="P2" t="n">
         <v>218833.5312038322</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83800.81090636179</v>
+        <v>83800.81090636174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,22 +26438,22 @@
         <v>15497.99642330503</v>
       </c>
       <c r="I4" t="n">
-        <v>15497.99642330505</v>
+        <v>15497.99642330503</v>
       </c>
       <c r="J4" t="n">
-        <v>15497.99642330503</v>
+        <v>15497.99642330504</v>
       </c>
       <c r="K4" t="n">
-        <v>15497.99642330503</v>
+        <v>15497.99642330504</v>
       </c>
       <c r="L4" t="n">
-        <v>15497.99642330503</v>
+        <v>15497.99642330504</v>
       </c>
       <c r="M4" t="n">
         <v>15497.99642330503</v>
       </c>
       <c r="N4" t="n">
-        <v>15497.99642330504</v>
+        <v>15497.99642330503</v>
       </c>
       <c r="O4" t="n">
         <v>15497.99642330504</v>
@@ -26490,22 +26490,22 @@
         <v>32240.38730935651</v>
       </c>
       <c r="I5" t="n">
+        <v>32240.38730935651</v>
+      </c>
+      <c r="J5" t="n">
         <v>32240.38730935652</v>
       </c>
-      <c r="J5" t="n">
-        <v>32240.38730935651</v>
-      </c>
       <c r="K5" t="n">
-        <v>32240.38730935651</v>
+        <v>32240.38730935652</v>
       </c>
       <c r="L5" t="n">
-        <v>32240.38730935651</v>
+        <v>32240.38730935652</v>
       </c>
       <c r="M5" t="n">
         <v>32240.38730935651</v>
       </c>
       <c r="N5" t="n">
-        <v>32240.38730935652</v>
+        <v>32240.38730935651</v>
       </c>
       <c r="O5" t="n">
         <v>32240.38730935652</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13073.12966540159</v>
+        <v>13068.80009761529</v>
       </c>
       <c r="C6" t="n">
-        <v>13073.12966540159</v>
+        <v>13068.80009761523</v>
       </c>
       <c r="D6" t="n">
-        <v>-79695.60594740964</v>
+        <v>-79699.81635838661</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.9126094005</v>
+        <v>-245219.428010318</v>
       </c>
       <c r="F6" t="n">
-        <v>171095.1474711707</v>
+        <v>170203.632070253</v>
       </c>
       <c r="G6" t="n">
-        <v>171095.1474711707</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="H6" t="n">
-        <v>171095.1474711706</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="I6" t="n">
-        <v>171095.1474711707</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="J6" t="n">
-        <v>171095.1474711706</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="K6" t="n">
-        <v>171095.1474711706</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="L6" t="n">
-        <v>171095.1474711706</v>
+        <v>170203.6320702531</v>
       </c>
       <c r="M6" t="n">
-        <v>87294.33656480882</v>
+        <v>86402.82116389119</v>
       </c>
       <c r="N6" t="n">
-        <v>171095.1474711705</v>
+        <v>170203.632070253</v>
       </c>
       <c r="O6" t="n">
-        <v>171095.1474711707</v>
+        <v>170203.632070253</v>
       </c>
       <c r="P6" t="n">
-        <v>171095.1474711707</v>
+        <v>170203.632070253</v>
       </c>
     </row>
   </sheetData>
@@ -26810,22 +26810,22 @@
         <v>336.2739398499293</v>
       </c>
       <c r="I4" t="n">
+        <v>336.2739398499293</v>
+      </c>
+      <c r="J4" t="n">
         <v>336.2739398499294</v>
       </c>
-      <c r="J4" t="n">
-        <v>336.2739398499293</v>
-      </c>
       <c r="K4" t="n">
-        <v>336.2739398499293</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="L4" t="n">
-        <v>336.2739398499293</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="M4" t="n">
         <v>336.2739398499293</v>
       </c>
       <c r="N4" t="n">
-        <v>336.2739398499294</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="O4" t="n">
         <v>336.2739398499293</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>336.2739398499293</v>
+        <v>336.2739398499291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>312.7796656096352</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.8845028440469</v>
+        <v>234.8845028440468</v>
       </c>
       <c r="R44" t="n">
         <v>136.6305624593058</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.90519695250726</v>
       </c>
       <c r="K13" t="n">
         <v>196.016468918292</v>
@@ -35576,19 +35576,19 @@
         <v>310.8406265027444</v>
       </c>
       <c r="M13" t="n">
-        <v>336.2739398499293</v>
+        <v>62.63853856116505</v>
       </c>
       <c r="N13" t="n">
-        <v>334.343754050979</v>
+        <v>307.2187658831236</v>
       </c>
       <c r="O13" t="n">
-        <v>125.5548109711524</v>
+        <v>302.2544001651762</v>
       </c>
       <c r="P13" t="n">
         <v>28.4793332540976</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>85.15560331008841</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>27.5064796502928</v>
+        <v>224.2084947813306</v>
       </c>
       <c r="K15" t="n">
-        <v>336.2739398499293</v>
+        <v>98.32672869926326</v>
       </c>
       <c r="L15" t="n">
         <v>162.6262106554726</v>
@@ -35746,10 +35746,10 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.96106259368358</v>
+        <v>58.62817919564299</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>48.57807941766902</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>38.90519695250726</v>
       </c>
       <c r="K16" t="n">
-        <v>148.7166138664973</v>
+        <v>29.49619342063401</v>
       </c>
       <c r="L16" t="n">
-        <v>57.38009209791949</v>
+        <v>310.8406265027444</v>
       </c>
       <c r="M16" t="n">
         <v>336.2739398499293</v>
       </c>
       <c r="N16" t="n">
-        <v>334.343754050979</v>
+        <v>200.1036400920174</v>
       </c>
       <c r="O16" t="n">
         <v>302.2544001651762</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.5064796502928</v>
+        <v>224.2084947813306</v>
       </c>
       <c r="K18" t="n">
-        <v>296.0905954255582</v>
+        <v>99.38858029452048</v>
       </c>
       <c r="L18" t="n">
         <v>162.6262106554726</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>38.90519695250726</v>
       </c>
       <c r="K19" t="n">
         <v>196.016468918292</v>
       </c>
       <c r="L19" t="n">
-        <v>57.38009209791949</v>
+        <v>310.8406265027444</v>
       </c>
       <c r="M19" t="n">
-        <v>336.2739398499293</v>
+        <v>62.63853856116505</v>
       </c>
       <c r="N19" t="n">
-        <v>334.343754050979</v>
+        <v>96.60852711321967</v>
       </c>
       <c r="O19" t="n">
-        <v>83.2495032959847</v>
+        <v>302.2544001651762</v>
       </c>
       <c r="P19" t="n">
         <v>239.0895720240017</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>224.2084947813306</v>
+        <v>27.5064796502928</v>
       </c>
       <c r="K21" t="n">
         <v>98.32672869926326</v>
@@ -36214,13 +36214,13 @@
         <v>217.3055999814513</v>
       </c>
       <c r="O21" t="n">
-        <v>185.2652670599624</v>
+        <v>184.203415464705</v>
       </c>
       <c r="P21" t="n">
         <v>135.1460532389517</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.56632760038586</v>
+        <v>255.3301943266808</v>
       </c>
       <c r="R21" t="n">
         <v>48.57807941766902</v>
@@ -36281,22 +36281,22 @@
         <v>38.90519695250726</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49619342063401</v>
+        <v>196.016468918292</v>
       </c>
       <c r="L22" t="n">
         <v>310.8406265027444</v>
       </c>
       <c r="M22" t="n">
-        <v>336.2739398499293</v>
+        <v>62.63853856116505</v>
       </c>
       <c r="N22" t="n">
-        <v>334.343754050979</v>
+        <v>181.7641304233082</v>
       </c>
       <c r="O22" t="n">
-        <v>253.169889516303</v>
+        <v>302.2544001651762</v>
       </c>
       <c r="P22" t="n">
-        <v>28.4793332540976</v>
+        <v>239.0895720240017</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>224.2084947813306</v>
+        <v>27.5064796502928</v>
       </c>
       <c r="K24" t="n">
         <v>98.32672869926326</v>
@@ -36457,10 +36457,10 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.2062586133124</v>
+        <v>255.3301943266808</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>48.57807941766902</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>38.90519695250726</v>
       </c>
       <c r="K25" t="n">
-        <v>62.16717535918941</v>
+        <v>196.016468918292</v>
       </c>
       <c r="L25" t="n">
-        <v>57.38009209791949</v>
+        <v>310.8406265027444</v>
       </c>
       <c r="M25" t="n">
-        <v>336.2739398499294</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="N25" t="n">
-        <v>334.343754050979</v>
+        <v>66.30811577361865</v>
       </c>
       <c r="O25" t="n">
-        <v>302.2544001651762</v>
+        <v>58.91941021601301</v>
       </c>
       <c r="P25" t="n">
         <v>239.0895720240017</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>85.15560331008841</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>27.5064796502928</v>
+        <v>224.2084947813306</v>
       </c>
       <c r="K27" t="n">
-        <v>98.32672869926326</v>
+        <v>99.38858029452095</v>
       </c>
       <c r="L27" t="n">
         <v>162.6262106554726</v>
@@ -36694,10 +36694,10 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.9082737443497</v>
+        <v>57.56632760038586</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.57807941766902</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49619342063401</v>
+        <v>187.6218108190049</v>
       </c>
       <c r="L28" t="n">
-        <v>310.8406265027444</v>
+        <v>57.38009209791949</v>
       </c>
       <c r="M28" t="n">
-        <v>336.2739398499293</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="N28" t="n">
-        <v>113.5542015847091</v>
+        <v>334.343754050979</v>
       </c>
       <c r="O28" t="n">
         <v>302.2544001651762</v>
       </c>
       <c r="P28" t="n">
-        <v>239.0895720240017</v>
+        <v>28.4793332540976</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>85.15560331008841</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>27.5064796502928</v>
       </c>
       <c r="K30" t="n">
-        <v>296.0905954255582</v>
+        <v>98.32672869926326</v>
       </c>
       <c r="L30" t="n">
         <v>162.6262106554726</v>
@@ -36931,10 +36931,10 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.56632760038586</v>
+        <v>303.9082737443502</v>
       </c>
       <c r="R30" t="n">
-        <v>48.57807941766902</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>188.5062759449564</v>
+        <v>29.49619342063401</v>
       </c>
       <c r="L31" t="n">
         <v>310.8406265027444</v>
       </c>
       <c r="M31" t="n">
-        <v>336.2739398499293</v>
+        <v>336.2739398499294</v>
       </c>
       <c r="N31" t="n">
         <v>334.343754050979</v>
       </c>
       <c r="O31" t="n">
-        <v>47.90940063439949</v>
+        <v>292.0750864688106</v>
       </c>
       <c r="P31" t="n">
         <v>28.4793332540976</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.15560331008841</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>66.92761953132486</v>
+        <v>66.92761953132523</v>
       </c>
       <c r="K32" t="n">
         <v>133.6203210272048</v>
@@ -37150,10 +37150,10 @@
         <v>27.5064796502928</v>
       </c>
       <c r="K33" t="n">
-        <v>336.2739398499293</v>
+        <v>98.32672869926326</v>
       </c>
       <c r="L33" t="n">
-        <v>171.0209456487706</v>
+        <v>162.6262106554726</v>
       </c>
       <c r="M33" t="n">
         <v>202.4861721127084</v>
@@ -37168,7 +37168,7 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.56632760038586</v>
+        <v>303.9082737443502</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,10 +37232,10 @@
         <v>29.49619342063401</v>
       </c>
       <c r="L34" t="n">
-        <v>300.6613128063786</v>
+        <v>310.8406265027444</v>
       </c>
       <c r="M34" t="n">
-        <v>336.2739398499293</v>
+        <v>326.0946261535639</v>
       </c>
       <c r="N34" t="n">
         <v>334.343754050979</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>27.5064796502928</v>
+        <v>72.72053918327907</v>
       </c>
       <c r="K36" t="n">
         <v>98.32672869926326</v>
@@ -37393,16 +37393,16 @@
         <v>162.6262106554726</v>
       </c>
       <c r="M36" t="n">
-        <v>336.2739398499293</v>
+        <v>202.4861721127084</v>
       </c>
       <c r="N36" t="n">
         <v>217.3055999814513</v>
       </c>
       <c r="O36" t="n">
-        <v>296.7575938714482</v>
+        <v>184.203415464705</v>
       </c>
       <c r="P36" t="n">
-        <v>135.1460532389517</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="Q36" t="n">
         <v>57.56632760038586</v>
@@ -37466,10 +37466,10 @@
         <v>38.90519695250726</v>
       </c>
       <c r="K37" t="n">
-        <v>148.7166138664973</v>
+        <v>196.016468918292</v>
       </c>
       <c r="L37" t="n">
-        <v>57.38009209791949</v>
+        <v>95.23584035621332</v>
       </c>
       <c r="M37" t="n">
         <v>336.2739398499293</v>
@@ -37484,7 +37484,7 @@
         <v>28.4793332540976</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.15560331008841</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>27.5064796502928</v>
+        <v>224.2084947813306</v>
       </c>
       <c r="K39" t="n">
         <v>98.32672869926326</v>
@@ -37630,7 +37630,7 @@
         <v>162.6262106554726</v>
       </c>
       <c r="M39" t="n">
-        <v>336.2739398499294</v>
+        <v>202.4861721127084</v>
       </c>
       <c r="N39" t="n">
         <v>217.3055999814513</v>
@@ -37642,7 +37642,7 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q39" t="n">
-        <v>121.5424265894601</v>
+        <v>58.62817919564299</v>
       </c>
       <c r="R39" t="n">
         <v>48.57807941766902</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>38.90519695250726</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>148.7166138664977</v>
+        <v>29.49619342063401</v>
       </c>
       <c r="L40" t="n">
-        <v>57.38009209791949</v>
+        <v>300.6613128063786</v>
       </c>
       <c r="M40" t="n">
-        <v>336.2739398499294</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="N40" t="n">
         <v>334.343754050979</v>
@@ -37721,7 +37721,7 @@
         <v>28.4793332540976</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.15560331008841</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>196.016468918292</v>
+        <v>29.49619342063401</v>
       </c>
       <c r="L43" t="n">
-        <v>310.8406265027444</v>
+        <v>90.05107403647472</v>
       </c>
       <c r="M43" t="n">
         <v>336.2739398499293</v>
       </c>
       <c r="N43" t="n">
-        <v>201.3789256178281</v>
+        <v>334.343754050979</v>
       </c>
       <c r="O43" t="n">
-        <v>47.90940063439949</v>
+        <v>302.2544001651762</v>
       </c>
       <c r="P43" t="n">
         <v>239.0895720240017</v>
@@ -38037,7 +38037,7 @@
         <v>162.47821836871</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.3858044256547</v>
+        <v>90.38580442565463</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>27.5064796502928</v>
       </c>
       <c r="K45" t="n">
-        <v>336.2739398499293</v>
+        <v>98.32672869926326</v>
       </c>
       <c r="L45" t="n">
-        <v>171.0209456487708</v>
+        <v>162.6262106554726</v>
       </c>
       <c r="M45" t="n">
         <v>202.4861721127084</v>
@@ -38116,7 +38116,7 @@
         <v>135.1460532389517</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.56632760038586</v>
+        <v>303.90827374435</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>29.49619342063401</v>
       </c>
       <c r="L46" t="n">
-        <v>310.8406265027444</v>
+        <v>90.05107403647472</v>
       </c>
       <c r="M46" t="n">
-        <v>115.4843873836597</v>
+        <v>336.2739398499293</v>
       </c>
       <c r="N46" t="n">
         <v>334.343754050979</v>
